--- a/Excel/TanpaELL/Hasil_Pengujian_Map_128_avg_length.xlsx
+++ b/Excel/TanpaELL/Hasil_Pengujian_Map_128_avg_length.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\TanpaELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155793C7-4166-43C3-8789-C5E12106E69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55F8950-53D0-4ACE-97E0-CE034127AC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waktu Pencarian" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Jumlah Open'!$A$1:$G$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Panjang Jalur'!$A$1:$G$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Panjang Jalur Real'!$A$1:$G$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Waktu Pencarian'!$A$1:$G$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Waktu Pencarian'!$A$1:$G$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="71">
   <si>
     <t>Jumlah Kombinasi</t>
   </si>
@@ -274,6 +274,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,10 +312,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,1517 +625,1548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>8.1170000000000005E-4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>4.2795999999999997E-3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2.8411099999999991E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.18823790000000001</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>5.5435074999999993E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>3.792E-4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1.5812000000000001E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>6.3431E-3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>2.6223E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>8.6316250000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>5.3439999999999998E-4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1.8856999999999999E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>7.3737000000000004E-3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>2.7856499999999999E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>9.4125749999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
         <v>7.5610000000000011E-4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>4.0747999999999999E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2.61073E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.17338010000000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>5.1079575000000002E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>9.5209999999999999E-4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>4.3518000000000003E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>2.5725000000000001E-2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.17572570000000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>5.1688650000000003E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>8.1980000000000009E-4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>4.3934000000000004E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2.8841499999999999E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.18728040000000001</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>5.5333774999999988E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>8.7180000000000005E-4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>4.3477999999999998E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>2.8890200000000001E-2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.19086939999999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>5.6244799999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>4.4339999999999999E-4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>1.4885E-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>4.4401000000000006E-3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>1.48556E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>5.3068999999999998E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>4.149E-4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1.487E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>4.6067999999999986E-3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>1.6017E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>5.6314249999999989E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>5.6470000000000001E-4</v>
-      </c>
-      <c r="D11">
-        <v>1.7593999999999999E-3</v>
-      </c>
-      <c r="E11">
-        <v>6.2462000000000012E-3</v>
-      </c>
-      <c r="F11">
-        <v>2.22223E-2</v>
-      </c>
-      <c r="G11">
-        <v>7.6981499999999991E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.3290000000000011E-4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.6576E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.6197999999999986E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.6805599999999999E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8.878974999999999E-3</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>4.3290000000000011E-4</v>
-      </c>
-      <c r="D12">
-        <v>1.6576E-3</v>
-      </c>
-      <c r="E12">
-        <v>6.6197999999999986E-3</v>
-      </c>
-      <c r="F12">
-        <v>2.6805599999999999E-2</v>
-      </c>
-      <c r="G12">
-        <v>8.878974999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.3090000000000001E-4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.7504E-3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6.7302000000000004E-3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.7522000000000001E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9.1083750000000002E-3</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>4.3090000000000001E-4</v>
-      </c>
-      <c r="D13">
-        <v>1.7504E-3</v>
-      </c>
-      <c r="E13">
-        <v>6.7302000000000004E-3</v>
-      </c>
-      <c r="F13">
-        <v>2.7522000000000001E-2</v>
-      </c>
-      <c r="G13">
-        <v>9.1083750000000002E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.8979999999999992E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.0577E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7.5307999999999998E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.8334499999999999E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9.6282E-3</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>5.8979999999999992E-4</v>
-      </c>
-      <c r="D14">
-        <v>2.0577E-3</v>
-      </c>
-      <c r="E14">
-        <v>7.5307999999999998E-3</v>
-      </c>
-      <c r="F14">
-        <v>2.8334499999999999E-2</v>
-      </c>
-      <c r="G14">
-        <v>9.6282E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5.5499999999999994E-4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.173E-3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7.9747999999999989E-3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3.04911E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.0298475E-2</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>5.5499999999999994E-4</v>
-      </c>
-      <c r="D15">
-        <v>2.173E-3</v>
-      </c>
-      <c r="E15">
-        <v>7.9747999999999989E-3</v>
-      </c>
-      <c r="F15">
-        <v>3.04911E-2</v>
-      </c>
-      <c r="G15">
-        <v>1.0298475E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4.9799999999999996E-4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.4505E-3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.0709400000000001E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5.4259700000000001E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.6979399999999999E-2</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>3.2899999999999997E-4</v>
-      </c>
-      <c r="D16">
-        <v>1.5697E-3</v>
-      </c>
-      <c r="E16">
-        <v>7.0262000000000007E-3</v>
-      </c>
-      <c r="F16">
-        <v>3.0894999999999999E-2</v>
-      </c>
-      <c r="G16">
-        <v>9.9549749999999979E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.031999999999999E-4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.3045000000000002E-3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.6410800000000002E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.16144749999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.8241500000000007E-2</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>4.9799999999999996E-4</v>
-      </c>
-      <c r="D17">
-        <v>2.4505E-3</v>
-      </c>
-      <c r="E17">
-        <v>1.0709400000000001E-2</v>
-      </c>
-      <c r="F17">
-        <v>5.4259700000000001E-2</v>
-      </c>
-      <c r="G17">
-        <v>1.6979399999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.0040000000000005E-4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4.2269999999999999E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.70455E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.17501700000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5.1772474999999998E-2</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>8.031999999999999E-4</v>
-      </c>
-      <c r="D18">
-        <v>4.3045000000000002E-3</v>
-      </c>
-      <c r="E18">
-        <v>2.6410800000000002E-2</v>
-      </c>
-      <c r="F18">
-        <v>0.16144749999999999</v>
-      </c>
-      <c r="G18">
-        <v>4.8241500000000007E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.1230000000000011E-4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4.4694000000000001E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.6364200000000001E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.1772397</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5.2246399999999998E-2</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>8.0040000000000005E-4</v>
-      </c>
-      <c r="D19">
-        <v>4.2269999999999999E-3</v>
-      </c>
-      <c r="E19">
-        <v>2.70455E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.17501700000000001</v>
-      </c>
-      <c r="G19">
-        <v>5.1772474999999998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.0020000000000001E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4.6585000000000003E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.9753100000000001E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.193465</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.7219649999999997E-2</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>9.1230000000000011E-4</v>
-      </c>
-      <c r="D20">
-        <v>4.4694000000000001E-3</v>
-      </c>
-      <c r="E20">
-        <v>2.6364200000000001E-2</v>
-      </c>
-      <c r="F20">
-        <v>0.1772397</v>
-      </c>
-      <c r="G20">
-        <v>5.2246399999999998E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>8.7739999999999986E-4</v>
-      </c>
-      <c r="D21">
-        <v>4.5361999999999998E-3</v>
-      </c>
-      <c r="E21">
-        <v>2.8842E-2</v>
-      </c>
-      <c r="F21">
-        <v>0.18717990000000001</v>
-      </c>
-      <c r="G21">
-        <v>5.5358875000000002E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>1.0020000000000001E-3</v>
-      </c>
-      <c r="D22">
-        <v>4.6585000000000003E-3</v>
-      </c>
-      <c r="E22">
-        <v>2.9753100000000001E-2</v>
-      </c>
-      <c r="F22">
-        <v>0.193465</v>
-      </c>
-      <c r="G22">
-        <v>5.7219649999999997E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23">
+      <c r="C20" s="2">
         <v>9.6919999999999992E-4</v>
       </c>
-      <c r="D23">
+      <c r="D20" s="2">
         <v>5.4597999999999999E-3</v>
       </c>
-      <c r="E23">
+      <c r="E20" s="2">
         <v>3.3641900000000002E-2</v>
       </c>
-      <c r="F23">
+      <c r="F20" s="2">
         <v>0.22027330000000001</v>
       </c>
-      <c r="G23">
+      <c r="G20" s="2">
         <v>6.5086049999999993E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C24">
+      <c r="C21" s="2">
         <v>2.5470000000000001E-4</v>
       </c>
-      <c r="D24">
+      <c r="D21" s="2">
         <v>8.786E-4</v>
       </c>
-      <c r="E24">
+      <c r="E21" s="2">
         <v>2.8567000000000002E-3</v>
       </c>
-      <c r="F24">
+      <c r="F21" s="2">
         <v>1.0402700000000001E-2</v>
       </c>
-      <c r="G24">
+      <c r="G21" s="2">
         <v>3.5981749999999999E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25">
+      <c r="C22" s="2">
         <v>4.6500000000000003E-4</v>
       </c>
-      <c r="D25">
+      <c r="D22" s="2">
         <v>1.5005999999999999E-3</v>
       </c>
-      <c r="E25">
+      <c r="E22" s="2">
         <v>3.8920000000000001E-3</v>
       </c>
-      <c r="F25">
+      <c r="F22" s="2">
         <v>1.24995E-2</v>
       </c>
-      <c r="G25">
+      <c r="G22" s="2">
         <v>4.5892750000000003E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26">
-        <v>4.214E-4</v>
-      </c>
-      <c r="D26">
-        <v>1.2945999999999999E-3</v>
-      </c>
-      <c r="E26">
-        <v>4.0025E-3</v>
-      </c>
-      <c r="F26">
-        <v>1.3461600000000001E-2</v>
-      </c>
-      <c r="G26">
-        <v>4.7950249999999996E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27">
+      <c r="C23" s="2">
         <v>4.8480000000000002E-4</v>
       </c>
-      <c r="D27">
+      <c r="D23" s="2">
         <v>1.5015E-3</v>
       </c>
-      <c r="E27">
+      <c r="E23" s="2">
         <v>4.5599000000000004E-3</v>
       </c>
-      <c r="F27">
+      <c r="F23" s="2">
         <v>1.49073E-2</v>
       </c>
-      <c r="G27">
+      <c r="G23" s="2">
         <v>5.3633750000000001E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C28">
+      <c r="C24" s="2">
         <v>5.019E-4</v>
       </c>
-      <c r="D28">
+      <c r="D24" s="2">
         <v>1.6096999999999999E-3</v>
       </c>
-      <c r="E28">
+      <c r="E24" s="2">
         <v>4.5904999999999991E-3</v>
       </c>
-      <c r="F28">
+      <c r="F24" s="2">
         <v>1.6320999999999999E-2</v>
       </c>
-      <c r="G28">
+      <c r="G24" s="2">
         <v>5.7557749999999994E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C29">
+      <c r="C25" s="2">
         <v>4.7019999999999999E-4</v>
       </c>
-      <c r="D29">
+      <c r="D25" s="2">
         <v>1.5062000000000001E-3</v>
       </c>
-      <c r="E29">
+      <c r="E25" s="2">
         <v>4.6814999999999999E-3</v>
       </c>
-      <c r="F29">
+      <c r="F25" s="2">
         <v>1.64967E-2</v>
       </c>
-      <c r="G29">
+      <c r="G25" s="2">
         <v>5.7886500000000011E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C30">
+      <c r="C26" s="2">
         <v>3.9730000000000001E-4</v>
       </c>
-      <c r="D30">
+      <c r="D26" s="2">
         <v>1.1578000000000001E-3</v>
       </c>
-      <c r="E30">
+      <c r="E26" s="2">
         <v>4.0591000000000004E-3</v>
       </c>
-      <c r="F30">
+      <c r="F26" s="2">
         <v>1.7768200000000001E-2</v>
       </c>
-      <c r="G30">
+      <c r="G26" s="2">
         <v>5.8456000000000003E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31">
-        <v>5.8940000000000002E-4</v>
-      </c>
-      <c r="D31">
-        <v>1.7179000000000001E-3</v>
-      </c>
-      <c r="E31">
-        <v>5.7147999999999999E-3</v>
-      </c>
-      <c r="F31">
-        <v>2.0794E-2</v>
-      </c>
-      <c r="G31">
-        <v>7.2040250000000002E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32">
+      <c r="C27" s="2">
         <v>6.0519999999999997E-4</v>
       </c>
-      <c r="D32">
+      <c r="D27" s="2">
         <v>1.776E-3</v>
       </c>
-      <c r="E32">
+      <c r="E27" s="2">
         <v>6.2680000000000001E-3</v>
       </c>
-      <c r="F32">
+      <c r="F27" s="2">
         <v>2.2371200000000001E-2</v>
       </c>
-      <c r="G32">
+      <c r="G27" s="2">
         <v>7.7551E-3</v>
       </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.6470000000000002E-4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.8787000000000001E-3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>7.0486999999999998E-3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2.95921E-2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>9.7460499999999992E-3</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5.6660000000000011E-4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.146299999999999E-3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>8.0849999999999984E-3</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3.1185500000000001E-2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.0495849999999999E-2</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.4949999999999998E-4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.7731999999999999E-3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>7.3038000000000009E-3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3.1268199999999989E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1.0198675000000001E-2</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5.3850000000000002E-4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.3598999999999998E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.1784599999999999E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5.4098800000000002E-2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.7195450000000001E-2</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5.4699999999999996E-4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4.1514999999999998E-3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.0961200000000001E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5.5679500000000007E-2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1.7834800000000001E-2</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>4.6470000000000002E-4</v>
-      </c>
-      <c r="D33">
-        <v>1.8787000000000001E-3</v>
-      </c>
-      <c r="E33">
-        <v>7.0486999999999998E-3</v>
-      </c>
-      <c r="F33">
-        <v>2.95921E-2</v>
-      </c>
-      <c r="G33">
-        <v>9.7460499999999992E-3</v>
+      <c r="A33" s="2">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5.729000000000001E-4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2.5860000000000002E-3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.1742600000000001E-2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5.8623600000000012E-2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.8381274999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>5.6660000000000011E-4</v>
-      </c>
-      <c r="D34">
-        <v>2.146299999999999E-3</v>
-      </c>
-      <c r="E34">
-        <v>8.0849999999999984E-3</v>
-      </c>
-      <c r="F34">
-        <v>3.1185500000000001E-2</v>
-      </c>
-      <c r="G34">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8.4119999999999996E-4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4.4099999999999999E-3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.64882E-2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.16303980000000001</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4.8694800000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2">
+        <v>9.9809999999999981E-4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4.8227000000000009E-3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3.21035E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.19379299999999999</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5.7929324999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.0344E-3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5.7026999999999998E-3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3.31329E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.21634790000000001</v>
+      </c>
+      <c r="G36" s="2">
+        <v>6.4054475E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9.7289999999999996E-4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5.8412999999999998E-3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3.3522200000000002E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.22054509999999999</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6.5220374999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3.1589999999999998E-4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9.1620000000000004E-4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2.9394E-3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.0539E-2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3.6776249999999999E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3.255E-4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9.433E-4</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.9821000000000001E-3</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.06614E-2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3.728075E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5.0900000000000012E-4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.5491000000000001E-3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3.9493999999999996E-3</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.28761E-2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>4.7209000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4.9070000000000006E-4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.3127E-3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4.1616999999999991E-3</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.36528E-2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4.9044750000000002E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4.4519999999999993E-4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.2993E-3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3.9351000000000004E-3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.50378E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5.1793499999999992E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5.4429999999999995E-4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.606E-3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4.6265999999999998E-3</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1.64341E-2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>5.8027499999999997E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5.0900000000000012E-4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.5937E-3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4.494999999999999E-3</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.6631199999999999E-2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5.8072250000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2.7230000000000001E-4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9.2180000000000007E-4</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3.8728E-3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1.7961299999999999E-2</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5.7570500000000014E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4.4180000000000001E-4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.1965000000000001E-3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4.1652999999999994E-3</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1.8972200000000002E-2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6.1939500000000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6.2E-4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.8083999999999999E-3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5.7017999999999999E-3</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2.11212E-2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>7.3128500000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4.841E-4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.8572E-3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>7.4575000000000006E-3</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3.2184600000000001E-2</v>
+      </c>
+      <c r="G48" s="2">
         <v>1.0495849999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>4.4949999999999998E-4</v>
-      </c>
-      <c r="D35">
-        <v>1.7731999999999999E-3</v>
-      </c>
-      <c r="E35">
-        <v>7.3038000000000009E-3</v>
-      </c>
-      <c r="F35">
-        <v>3.1268199999999989E-2</v>
-      </c>
-      <c r="G35">
-        <v>1.0198675000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36">
-        <v>4.4939999999999997E-4</v>
-      </c>
-      <c r="D36">
-        <v>1.6949999999999999E-3</v>
-      </c>
-      <c r="E36">
-        <v>8.2865000000000005E-3</v>
-      </c>
-      <c r="F36">
-        <v>3.1809400000000002E-2</v>
-      </c>
-      <c r="G36">
-        <v>1.0560075E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37">
-        <v>5.3850000000000002E-4</v>
-      </c>
-      <c r="D37">
-        <v>2.3598999999999998E-3</v>
-      </c>
-      <c r="E37">
-        <v>1.1784599999999999E-2</v>
-      </c>
-      <c r="F37">
-        <v>5.4098800000000002E-2</v>
-      </c>
-      <c r="G37">
-        <v>1.7195450000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38">
-        <v>5.4699999999999996E-4</v>
-      </c>
-      <c r="D38">
-        <v>4.1514999999999998E-3</v>
-      </c>
-      <c r="E38">
-        <v>1.0961200000000001E-2</v>
-      </c>
-      <c r="F38">
-        <v>5.5679500000000007E-2</v>
-      </c>
-      <c r="G38">
-        <v>1.7834800000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39">
-        <v>5.729000000000001E-4</v>
-      </c>
-      <c r="D39">
-        <v>2.5860000000000002E-3</v>
-      </c>
-      <c r="E39">
-        <v>1.1742600000000001E-2</v>
-      </c>
-      <c r="F39">
-        <v>5.8623600000000012E-2</v>
-      </c>
-      <c r="G39">
-        <v>1.8381274999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>8.4119999999999996E-4</v>
-      </c>
-      <c r="D40">
-        <v>4.4099999999999999E-3</v>
-      </c>
-      <c r="E40">
-        <v>2.64882E-2</v>
-      </c>
-      <c r="F40">
-        <v>0.16303980000000001</v>
-      </c>
-      <c r="G40">
-        <v>4.8694800000000003E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41">
-        <v>9.9809999999999981E-4</v>
-      </c>
-      <c r="D41">
-        <v>4.8227000000000009E-3</v>
-      </c>
-      <c r="E41">
-        <v>3.21035E-2</v>
-      </c>
-      <c r="F41">
-        <v>0.19379299999999999</v>
-      </c>
-      <c r="G41">
-        <v>5.7929324999999997E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>3</v>
-      </c>
-      <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42">
-        <v>1.0344E-3</v>
-      </c>
-      <c r="D42">
-        <v>5.7026999999999998E-3</v>
-      </c>
-      <c r="E42">
-        <v>3.31329E-2</v>
-      </c>
-      <c r="F42">
-        <v>0.21634790000000001</v>
-      </c>
-      <c r="G42">
-        <v>6.4054475E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43">
-        <v>9.7289999999999996E-4</v>
-      </c>
-      <c r="D43">
-        <v>5.8412999999999998E-3</v>
-      </c>
-      <c r="E43">
-        <v>3.3522200000000002E-2</v>
-      </c>
-      <c r="F43">
-        <v>0.22054509999999999</v>
-      </c>
-      <c r="G43">
-        <v>6.5220374999999997E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44">
-        <v>3.1589999999999998E-4</v>
-      </c>
-      <c r="D44">
-        <v>9.1620000000000004E-4</v>
-      </c>
-      <c r="E44">
-        <v>2.9394E-3</v>
-      </c>
-      <c r="F44">
-        <v>1.0539E-2</v>
-      </c>
-      <c r="G44">
-        <v>3.6776249999999999E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45">
-        <v>3.255E-4</v>
-      </c>
-      <c r="D45">
-        <v>9.433E-4</v>
-      </c>
-      <c r="E45">
-        <v>2.9821000000000001E-3</v>
-      </c>
-      <c r="F45">
-        <v>1.06614E-2</v>
-      </c>
-      <c r="G45">
-        <v>3.728075E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46">
-        <v>5.0900000000000012E-4</v>
-      </c>
-      <c r="D46">
-        <v>1.5491000000000001E-3</v>
-      </c>
-      <c r="E46">
-        <v>3.9493999999999996E-3</v>
-      </c>
-      <c r="F46">
-        <v>1.28761E-2</v>
-      </c>
-      <c r="G46">
-        <v>4.7209000000000001E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47">
-        <v>4.9070000000000006E-4</v>
-      </c>
-      <c r="D47">
-        <v>1.3127E-3</v>
-      </c>
-      <c r="E47">
-        <v>4.1616999999999991E-3</v>
-      </c>
-      <c r="F47">
-        <v>1.36528E-2</v>
-      </c>
-      <c r="G47">
-        <v>4.9044750000000002E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48">
-        <v>4.4519999999999993E-4</v>
-      </c>
-      <c r="D48">
-        <v>1.2993E-3</v>
-      </c>
-      <c r="E48">
-        <v>3.9351000000000004E-3</v>
-      </c>
-      <c r="F48">
-        <v>1.50378E-2</v>
-      </c>
-      <c r="G48">
-        <v>5.1793499999999992E-3</v>
-      </c>
-    </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49">
-        <v>5.4429999999999995E-4</v>
-      </c>
-      <c r="D49">
-        <v>1.606E-3</v>
-      </c>
-      <c r="E49">
-        <v>4.6265999999999998E-3</v>
-      </c>
-      <c r="F49">
-        <v>1.64341E-2</v>
-      </c>
-      <c r="G49">
-        <v>5.8027499999999997E-3</v>
+      <c r="A49" s="2">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6.9399999999999996E-4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2.6480000000000002E-3</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1.17587E-2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5.5785899999999999E-2</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1.7721649999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50">
-        <v>5.0900000000000012E-4</v>
-      </c>
-      <c r="D50">
-        <v>1.5937E-3</v>
-      </c>
-      <c r="E50">
-        <v>4.494999999999999E-3</v>
-      </c>
-      <c r="F50">
-        <v>1.6631199999999999E-2</v>
-      </c>
-      <c r="G50">
-        <v>5.8072250000000001E-3</v>
+      <c r="A50" s="2">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2">
+        <v>6.1890000000000003E-4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2.4604000000000002E-3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.21431E-2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5.5978700000000013E-2</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1.7800275000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51">
-        <v>2.7230000000000001E-4</v>
-      </c>
-      <c r="D51">
-        <v>9.2180000000000007E-4</v>
-      </c>
-      <c r="E51">
-        <v>3.8728E-3</v>
-      </c>
-      <c r="F51">
-        <v>1.7961299999999999E-2</v>
-      </c>
-      <c r="G51">
-        <v>5.7570500000000014E-3</v>
+      <c r="A51" s="2">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2">
+        <v>6.0490000000000001E-4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2.7425000000000001E-3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.2029E-2</v>
+      </c>
+      <c r="F51" s="2">
+        <v>5.8991599999999998E-2</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1.8592000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52">
-        <v>4.4180000000000001E-4</v>
-      </c>
-      <c r="D52">
-        <v>1.1965000000000001E-3</v>
-      </c>
-      <c r="E52">
-        <v>4.1652999999999994E-3</v>
-      </c>
-      <c r="F52">
-        <v>1.8972200000000002E-2</v>
-      </c>
-      <c r="G52">
-        <v>6.1939500000000002E-3</v>
+      <c r="A52" s="2">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.0786999999999999E-3</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5.7713E-3</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3.3041099999999997E-2</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.21640409999999999</v>
+      </c>
+      <c r="G52" s="2">
+        <v>6.40738E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53">
-        <v>6.2E-4</v>
-      </c>
-      <c r="D53">
-        <v>1.8083999999999999E-3</v>
-      </c>
-      <c r="E53">
-        <v>5.7017999999999999E-3</v>
-      </c>
-      <c r="F53">
-        <v>2.11212E-2</v>
-      </c>
-      <c r="G53">
-        <v>7.3128500000000001E-3</v>
+      <c r="A53" s="2">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3.7760000000000002E-4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>9.7839999999999993E-4</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3.056000000000001E-3</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1.0868600000000001E-2</v>
+      </c>
+      <c r="G53" s="2">
+        <v>3.82015E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>4.841E-4</v>
-      </c>
-      <c r="D54">
-        <v>1.8572E-3</v>
-      </c>
-      <c r="E54">
-        <v>7.4575000000000006E-3</v>
-      </c>
-      <c r="F54">
-        <v>3.2184600000000001E-2</v>
-      </c>
-      <c r="G54">
-        <v>1.0495849999999999E-2</v>
+      <c r="A54" s="2">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2">
+        <v>4.9479999999999999E-4</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.3856000000000001E-3</v>
+      </c>
+      <c r="E54" s="2">
+        <v>4.8358999999999989E-3</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1.5062300000000001E-2</v>
+      </c>
+      <c r="G54" s="2">
+        <v>5.4446499999999997E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55">
-        <v>6.9399999999999996E-4</v>
-      </c>
-      <c r="D55">
-        <v>2.6480000000000002E-3</v>
-      </c>
-      <c r="E55">
-        <v>1.17587E-2</v>
-      </c>
-      <c r="F55">
-        <v>5.5785899999999999E-2</v>
-      </c>
-      <c r="G55">
-        <v>1.7721649999999999E-2</v>
+      <c r="A55" s="2">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5.53E-4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.6167E-3</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4.6207000000000002E-3</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1.6426699999999999E-2</v>
+      </c>
+      <c r="G55" s="2">
+        <v>5.8042749999999994E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56">
-        <v>6.1890000000000003E-4</v>
-      </c>
-      <c r="D56">
-        <v>2.4604000000000002E-3</v>
-      </c>
-      <c r="E56">
-        <v>1.21431E-2</v>
-      </c>
-      <c r="F56">
-        <v>5.5978700000000013E-2</v>
-      </c>
-      <c r="G56">
-        <v>1.7800275000000001E-2</v>
+      <c r="A56" s="2">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3.4840000000000001E-4</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.0162000000000001E-3</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3.5580999999999989E-3</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1.69143E-2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5.4592499999999997E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57">
-        <v>6.0490000000000001E-4</v>
-      </c>
-      <c r="D57">
-        <v>2.7425000000000001E-3</v>
-      </c>
-      <c r="E57">
-        <v>1.2029E-2</v>
-      </c>
-      <c r="F57">
-        <v>5.8991599999999998E-2</v>
-      </c>
-      <c r="G57">
-        <v>1.8592000000000001E-2</v>
+      <c r="A57" s="2">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3.4860000000000002E-4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>9.8519999999999988E-4</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3.9182000000000002E-3</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1.8287600000000001E-2</v>
+      </c>
+      <c r="G57" s="2">
+        <v>5.8848999999999993E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58">
-        <v>1.0786999999999999E-3</v>
-      </c>
-      <c r="D58">
-        <v>5.7713E-3</v>
-      </c>
-      <c r="E58">
-        <v>3.3041099999999997E-2</v>
-      </c>
-      <c r="F58">
-        <v>0.21640409999999999</v>
-      </c>
-      <c r="G58">
-        <v>6.40738E-2</v>
+      <c r="A58" s="2">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="2">
+        <v>6.3389999999999996E-4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2.7807000000000001E-3</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.19212E-2</v>
+      </c>
+      <c r="F58" s="2">
+        <v>5.6875099999999998E-2</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1.8052724999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59">
-        <v>3.7760000000000002E-4</v>
-      </c>
-      <c r="D59">
-        <v>9.7839999999999993E-4</v>
-      </c>
-      <c r="E59">
-        <v>3.056000000000001E-3</v>
-      </c>
-      <c r="F59">
-        <v>1.0868600000000001E-2</v>
-      </c>
-      <c r="G59">
-        <v>3.82015E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60">
-        <v>4.9479999999999999E-4</v>
-      </c>
-      <c r="D60">
-        <v>1.3856000000000001E-3</v>
-      </c>
-      <c r="E60">
-        <v>4.8358999999999989E-3</v>
-      </c>
-      <c r="F60">
-        <v>1.5062300000000001E-2</v>
-      </c>
-      <c r="G60">
-        <v>5.4446499999999997E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61">
-        <v>5.53E-4</v>
-      </c>
-      <c r="D61">
-        <v>1.6167E-3</v>
-      </c>
-      <c r="E61">
-        <v>4.6207000000000002E-3</v>
-      </c>
-      <c r="F61">
-        <v>1.6426699999999999E-2</v>
-      </c>
-      <c r="G61">
-        <v>5.8042749999999994E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62">
-        <v>3.4840000000000001E-4</v>
-      </c>
-      <c r="D62">
-        <v>1.0162000000000001E-3</v>
-      </c>
-      <c r="E62">
-        <v>3.5580999999999989E-3</v>
-      </c>
-      <c r="F62">
-        <v>1.69143E-2</v>
-      </c>
-      <c r="G62">
-        <v>5.4592499999999997E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63">
-        <v>3.4860000000000002E-4</v>
-      </c>
-      <c r="D63">
-        <v>9.8519999999999988E-4</v>
-      </c>
-      <c r="E63">
-        <v>3.9182000000000002E-3</v>
-      </c>
-      <c r="F63">
-        <v>1.8287600000000001E-2</v>
-      </c>
-      <c r="G63">
-        <v>5.8848999999999993E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64">
-        <v>6.3389999999999996E-4</v>
-      </c>
-      <c r="D64">
-        <v>2.7807000000000001E-3</v>
-      </c>
-      <c r="E64">
-        <v>1.19212E-2</v>
-      </c>
-      <c r="F64">
-        <v>5.6875099999999998E-2</v>
-      </c>
-      <c r="G64">
-        <v>1.8052724999999999E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A59" s="2">
         <v>6</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B59" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C65">
+      <c r="C59" s="2">
         <v>3.7110000000000002E-4</v>
       </c>
-      <c r="D65">
+      <c r="D59" s="2">
         <v>1.041E-3</v>
       </c>
-      <c r="E65">
+      <c r="E59" s="2">
         <v>3.5739000000000001E-3</v>
       </c>
-      <c r="F65">
+      <c r="F59" s="2">
         <v>1.7233200000000001E-2</v>
       </c>
-      <c r="G65">
+      <c r="G59" s="2">
         <v>5.5548000000000004E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="A1:A65"/>
+  <autoFilter ref="A1:G59" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G59">
+      <sortCondition ref="A1:A59"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2139,7 +2177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
